--- a/client/src/assets/template/BatchUploadTemplate.xlsx
+++ b/client/src/assets/template/BatchUploadTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Firstname</t>
   </si>
@@ -28,46 +28,40 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Mark Limuel</t>
-  </si>
-  <si>
-    <t>Lape</t>
-  </si>
-  <si>
-    <t>lapemark11@gmail.com</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
     <t>SchoolID</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>PermissionLevel</t>
+  </si>
+  <si>
     <t>Yranimez</t>
   </si>
   <si>
     <t>Repil</t>
   </si>
   <si>
-    <t>yranimez22@gmail.com</t>
+    <t>repil.257901@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Gerena</t>
   </si>
   <si>
     <t>James Bernard</t>
   </si>
   <si>
-    <t>Gerena</t>
-  </si>
-  <si>
-    <t>gerena33@gmail.com</t>
-  </si>
-  <si>
-    <t>Mia</t>
-  </si>
-  <si>
     <t>Maddara</t>
   </si>
   <si>
-    <t>madarra44@gmail.com</t>
+    <t>Mia Angela</t>
   </si>
   <si>
     <t>Aeron</t>
@@ -76,43 +70,58 @@
     <t>Pagaoa</t>
   </si>
   <si>
-    <t>pagaoa55@gmail.com</t>
-  </si>
-  <si>
-    <t>Joshue Rhey</t>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>Afable</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Silverio</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Laguno</t>
+  </si>
+  <si>
+    <t>Joshua</t>
   </si>
   <si>
     <t>Oliveros</t>
   </si>
   <si>
-    <t>oliveros66@gmail.com</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Cristylen</t>
-  </si>
-  <si>
-    <t>Esporsado</t>
-  </si>
-  <si>
-    <t>esporsado77@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Silverio</t>
-  </si>
-  <si>
-    <t>silverio88@gmail.com</t>
-  </si>
-  <si>
-    <t>Miguel Jerome</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>gerena.257902@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>maddara.257903@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>pagaoa.257904@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>Jhoeres-Joy</t>
+  </si>
+  <si>
+    <t>Lacadman</t>
+  </si>
+  <si>
+    <t>lacadman.257909@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>marilyn.afable@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>jerome.silverio@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>ace.laguno@munoz.sti.edu.ph</t>
+  </si>
+  <si>
+    <t>joshua.oliveros@munoz.sti.edu.ph</t>
   </si>
 </sst>
 </file>
@@ -474,24 +483,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -505,78 +515,93 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2000257907</v>
+        <v>2000257901</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000257902</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000257908</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2000257909</v>
+        <v>2000257903</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2000257910</v>
+        <v>2000257904</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2000257911</v>
+        <v>2000257905</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -585,90 +610,108 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000257906</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2000257912</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2000257908</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2000257909</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2000257910</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2000257913</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2000257914</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
